--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010991</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合C</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>43.62</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>010991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>长盛同鑫行业配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.85</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.09</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>86.25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.20</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>001103</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>前海开源工业革命4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +862,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>前海开源睿远稳健增利混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>21.69</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001103</t>
+          <t>000933</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
+          <t>前海开源睿远稳健增利混合 - C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -828,15 +948,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>87.45</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8185</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.4</v>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.869999999999999</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2687,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.4</v>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2725,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.59</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.869999999999999</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5993</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3037,14 +3124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -3053,14 +3162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.4</v>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3069,13 +3200,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>9.57</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>6.59</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>8.869999999999999</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -600,6 +617,2262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016402</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2079,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3123,7 +5396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3407,7 +5680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3615,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3899,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002906-华阳集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>10.89</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>9.57</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>6.59</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>8.869999999999999</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -616,7 +633,877 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2872,7 +3759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3916,7 +4803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4352,7 +5239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5396,7 +6283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5680,7 +6567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5888,7 +6775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6170,250 +7057,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9024</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001103</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1412</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010991</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>